--- a/biology/Zoologie/Braconinae/Braconinae.xlsx
+++ b/biology/Zoologie/Braconinae/Braconinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Braconinae sont une sous-famille d'insectes de l'ordre des hyménoptères de la famille des Braconidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des microguèpes et les plus grands des Braconidae. 
 Nervation alaire complète des Braconidae
@@ -549,10 +563,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Liste des tribus
-Adeshini - Aphrastobraconini - Argamaniini - Bathyaulacini - Braconini - Coeloidini - Euurobraconini - Glyptomorphini - Gnathobraconini - Physaraiini - Rhammurini - Vaepellini
-Aperçu des genres
-Bracon, Campyloneurus, Coeloides, Glyptomorpha, Habrobracon, Pambolus, Pseudovipio, Rhaconothus, Iphiaulax, Exothecus, Rhyssalus, Rhogas, Colastes, Doryctes, Vipio
+          <t>Liste des tribus</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adeshini - Aphrastobraconini - Argamaniini - Bathyaulacini - Braconini - Coeloidini - Euurobraconini - Glyptomorphini - Gnathobraconini - Physaraiini - Rhammurini - Vaepellini
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Braconinae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Braconinae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Aperçu des genres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bracon, Campyloneurus, Coeloides, Glyptomorpha, Habrobracon, Pambolus, Pseudovipio, Rhaconothus, Iphiaulax, Exothecus, Rhyssalus, Rhogas, Colastes, Doryctes, Vipio
 </t>
         </is>
       </c>
